--- a/results/2Ex.xlsx
+++ b/results/2Ex.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a68a3ec46e1b54/Рабочий стол/BMSTU/8 sem/Diplom-source/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_922D0831CFA5AE2879B420535B044D3E51F765A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2515DF-C0D2-4DB0-95A4-32A789046EF5}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,178 +25,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
-    <t xml:space="preserve">ось Х</t>
+    <t>ось Х</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK</t>
+    <t>TASK</t>
   </si>
   <si>
-    <t xml:space="preserve">SINGLE</t>
+    <t>SINGLE</t>
   </si>
   <si>
-    <t xml:space="preserve">MULTI</t>
+    <t>MULTI</t>
   </si>
   <si>
-    <t xml:space="preserve">POOL</t>
+    <t>POOL</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncer ½</t>
+    <t>Bouncer ½</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncer ¾</t>
+    <t>Bouncer ¾</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncer 1/1</t>
+    <t>Bouncer 1/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
+      <b/>
+      <i/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -245,14 +206,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -268,135 +229,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="24">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 5" xfId="20"/>
-    <cellStyle name="Accent 2 6" xfId="21"/>
-    <cellStyle name="Accent 3 7" xfId="22"/>
-    <cellStyle name="Accent 4" xfId="23"/>
-    <cellStyle name="Bad 8" xfId="24"/>
-    <cellStyle name="Error 9" xfId="25"/>
-    <cellStyle name="Footnote 10" xfId="26"/>
-    <cellStyle name="Good 11" xfId="27"/>
-    <cellStyle name="Heading (user) 12" xfId="28"/>
-    <cellStyle name="Heading 1 13" xfId="29"/>
-    <cellStyle name="Heading 2 14" xfId="30"/>
-    <cellStyle name="Hyperlink 15" xfId="31"/>
-    <cellStyle name="Neutral 16" xfId="32"/>
-    <cellStyle name="Note 17" xfId="33"/>
-    <cellStyle name="Result (user) 18" xfId="34"/>
-    <cellStyle name="Status 19" xfId="35"/>
-    <cellStyle name="Text 20" xfId="36"/>
-    <cellStyle name="Warning 21" xfId="37"/>
+  <cellStyles count="19">
+    <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent 2 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent 3 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Bad 8" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Error 9" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnote 10" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Good 11" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Heading (user) 12" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Heading 1 13" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Heading 2 14" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Hyperlink 15" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Neutral 16" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Note 17" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Result (user) 18" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Status 19" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Text 20" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Warning 21" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -455,15 +334,36 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -472,7 +372,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -480,7 +380,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="ru-RU" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -501,6 +401,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -508,23 +409,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Custom"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Custom</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Custom</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -534,23 +424,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -559,13 +457,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -588,8 +493,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -598,52 +503,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0080857</c:v>
+                  <c:v>8.0856999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0195804</c:v>
+                  <c:v>1.9580400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0225088</c:v>
+                  <c:v>2.2508799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.032869</c:v>
+                  <c:v>3.2869000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0378647</c:v>
+                  <c:v>3.7864700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0496898</c:v>
+                  <c:v>4.9689799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0927038</c:v>
+                  <c:v>9.2703800000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE21-41B8-965E-0B5578FE3EA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Single"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Single</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -653,23 +552,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -678,13 +585,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -707,8 +621,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -717,10 +631,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0120408</c:v>
+                  <c:v>1.2040800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0561086</c:v>
+                  <c:v>5.6108600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1034557</c:v>
@@ -729,40 +643,34 @@
                   <c:v>0.1413739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1951023</c:v>
+                  <c:v>0.19510230000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2273461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42215</c:v>
+                  <c:v>0.42215000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE21-41B8-965E-0B5578FE3EA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Multi"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Multi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Multi</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -772,23 +680,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -797,13 +713,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -826,8 +749,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -836,22 +759,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0120907</c:v>
+                  <c:v>1.2090699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0430173</c:v>
+                  <c:v>4.3017300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0544919</c:v>
+                  <c:v>5.4491900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0797799</c:v>
+                  <c:v>7.9779900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1099989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1355667</c:v>
+                  <c:v>0.13556670000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.2455735</c:v>
@@ -860,28 +783,22 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CE21-41B8-965E-0B5578FE3EA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Pool"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pool</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Pool</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -891,23 +808,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -916,13 +841,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -945,8 +877,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -955,31 +887,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0044568</c:v>
+                  <c:v>4.4568000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0162032</c:v>
+                  <c:v>1.6203200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0272508</c:v>
+                  <c:v>2.7250799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0343261</c:v>
+                  <c:v>3.4326099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0396292</c:v>
+                  <c:v>3.9629200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0441482</c:v>
+                  <c:v>4.4148199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0672837</c:v>
+                  <c:v>6.7283700000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CE21-41B8-965E-0B5578FE3EA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -988,6 +933,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1467469"/>
         <c:axId val="2074152"/>
       </c:lineChart>
@@ -1002,7 +948,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1012,7 +958,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
+                <a:srgbClr val="F2F2F2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1025,7 +971,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1033,7 +979,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1059,7 +1005,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1069,13 +1015,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2074152"/>
@@ -1096,7 +1043,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1109,7 +1056,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1117,7 +1064,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1151,13 +1098,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1467469"/>
@@ -1187,22 +1135,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
@@ -1211,11 +1161,1389 @@
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение времени работы метода</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> и пула соединений</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Custom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.0856999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9580400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2508799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2869000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7864700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9689799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2703800000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3339-4C41-B030-40F0ED99A988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pool</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$R$2:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.4568000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6203200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7250799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4326099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9629200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4148199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7283700000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3339-4C41-B030-40F0ED99A988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>PGBouncer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$S$2:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.4974000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.02226E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.96271E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.16205E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4886100000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1073455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18486440000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3339-4C41-B030-40F0ED99A988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="341599903"/>
+        <c:axId val="2111646047"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$P$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ось Х</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$P$2:$P$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$P$2:$P$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3339-4C41-B030-40F0ED99A988}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="341599903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число соединений, шт</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111646047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2111646047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341599903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1229,14 +2557,20 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1590840" y="2199960"/>
-        <a:ext cx="6481080" cy="4022640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1246,223 +2580,703 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>229870</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE3C923-F928-7B57-C79F-7A333B40D695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="10.72"/>
+    <col min="1" max="5" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.0080857</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.0120408</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.0120907</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.0044568</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.0064974</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.005874</v>
+      <c r="B2">
+        <v>8.0856999999999995E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.2040800000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.2090699999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.4568000000000003E-3</v>
+      </c>
+      <c r="F2">
+        <v>6.4974000000000004E-3</v>
+      </c>
+      <c r="H2">
+        <v>5.8739999999999999E-3</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>8.0856999999999995E-3</v>
+      </c>
+      <c r="R2">
+        <v>4.4568000000000003E-3</v>
+      </c>
+      <c r="S2">
+        <v>6.4974000000000004E-3</v>
+      </c>
+      <c r="X2">
+        <v>5.8739999999999999E-3</v>
+      </c>
+      <c r="Y2">
+        <v>6.4974000000000004E-3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>50</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.0195804</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.0561086</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.0430173</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.0162032</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.0202226</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.021251</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.0212965</v>
+      <c r="B3">
+        <v>1.9580400000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.6108600000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.3017300000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.6203200000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.02226E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.1250999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.1296499999999999E-2</v>
+      </c>
+      <c r="P3">
+        <v>50</v>
+      </c>
+      <c r="Q3">
+        <v>1.9580400000000001E-2</v>
+      </c>
+      <c r="R3">
+        <v>1.6203200000000001E-2</v>
+      </c>
+      <c r="S3">
+        <v>2.02226E-2</v>
+      </c>
+      <c r="X3">
+        <v>2.1296499999999999E-2</v>
+      </c>
+      <c r="Y3">
+        <v>2.02226E-2</v>
+      </c>
+      <c r="Z3">
+        <v>2.1250999999999999E-2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0225088</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4">
+        <v>2.2508799999999999E-2</v>
+      </c>
+      <c r="C4">
         <v>0.1034557</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0544919</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.0272508</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.0496271</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.0510156</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.0481358</v>
+      <c r="D4">
+        <v>5.4491900000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.7250799999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.96271E-2</v>
+      </c>
+      <c r="G4">
+        <v>5.1015600000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.8135799999999999E-2</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>2.2508799999999999E-2</v>
+      </c>
+      <c r="R4">
+        <v>2.7250799999999999E-2</v>
+      </c>
+      <c r="S4">
+        <v>4.96271E-2</v>
+      </c>
+      <c r="X4">
+        <v>4.8135799999999999E-2</v>
+      </c>
+      <c r="Y4">
+        <v>4.96271E-2</v>
+      </c>
+      <c r="Z4">
+        <v>5.1015600000000001E-2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>150</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.032869</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5">
+        <v>3.2869000000000002E-2</v>
+      </c>
+      <c r="C5">
         <v>0.1413739</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.0797799</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.0343261</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.0516205</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.0671017</v>
+      <c r="D5">
+        <v>7.9779900000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.4326099999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.16205E-2</v>
+      </c>
+      <c r="H5">
+        <v>6.71017E-2</v>
+      </c>
+      <c r="P5">
+        <v>150</v>
+      </c>
+      <c r="Q5">
+        <v>3.2869000000000002E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.4326099999999998E-2</v>
+      </c>
+      <c r="S5">
+        <v>5.16205E-2</v>
+      </c>
+      <c r="X5">
+        <v>6.71017E-2</v>
+      </c>
+      <c r="Y5">
+        <v>5.16205E-2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>200</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.0378647</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.1951023</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="B6">
+        <v>3.7864700000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.19510230000000001</v>
+      </c>
+      <c r="D6">
         <v>0.1099989</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0.0396292</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.0848861</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.0875364</v>
+      <c r="E6">
+        <v>3.9629200000000003E-2</v>
+      </c>
+      <c r="F6">
+        <v>8.4886100000000006E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.75364E-2</v>
+      </c>
+      <c r="P6">
+        <v>200</v>
+      </c>
+      <c r="Q6">
+        <v>3.7864700000000001E-2</v>
+      </c>
+      <c r="R6">
+        <v>3.9629200000000003E-2</v>
+      </c>
+      <c r="S6">
+        <v>8.4886100000000006E-2</v>
+      </c>
+      <c r="X6">
+        <v>8.75364E-2</v>
+      </c>
+      <c r="Y6">
+        <v>8.4886100000000006E-2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>250</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.0496898</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7">
+        <v>4.9689799999999999E-2</v>
+      </c>
+      <c r="C7">
         <v>0.2273461</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.1355667</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.0441482</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7">
+        <v>0.13556670000000001</v>
+      </c>
+      <c r="E7">
+        <v>4.4148199999999999E-2</v>
+      </c>
+      <c r="F7">
         <v>0.1073455</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>0.1107363</v>
       </c>
+      <c r="P7">
+        <v>250</v>
+      </c>
+      <c r="Q7">
+        <v>4.9689799999999999E-2</v>
+      </c>
+      <c r="R7">
+        <v>4.4148199999999999E-2</v>
+      </c>
+      <c r="S7">
+        <v>0.1073455</v>
+      </c>
+      <c r="X7">
+        <v>0.1107363</v>
+      </c>
+      <c r="Y7">
+        <v>0.1073455</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>500</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.0927038</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.42215</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8">
+        <v>9.2703800000000003E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.42215000000000003</v>
+      </c>
+      <c r="D8">
         <v>0.2455735</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0.0672837</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.1848644</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.1933989</v>
+      <c r="E8">
+        <v>6.7283700000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.18486440000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.19339890000000001</v>
+      </c>
+      <c r="P8">
+        <v>500</v>
+      </c>
+      <c r="Q8">
+        <v>9.2703800000000003E-2</v>
+      </c>
+      <c r="R8">
+        <v>6.7283700000000002E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.18486440000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.19339890000000001</v>
+      </c>
+      <c r="Y8">
+        <v>0.18486440000000001</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CСтраница &amp;P</oddFooter>
   </headerFooter>

--- a/results/2Ex.xlsx
+++ b/results/2Ex.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a68a3ec46e1b54/Рабочий стол/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_922D0831CFA5AE2879B420535B044D3E51F765A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3F7A367-B1CD-402A-894F-3F7C8E31A3FD}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,181 +25,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
-    <t xml:space="preserve">ось Х</t>
+    <t>ось Х</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK</t>
+    <t>TASK</t>
   </si>
   <si>
-    <t xml:space="preserve">SINGLE</t>
+    <t>SINGLE</t>
   </si>
   <si>
-    <t xml:space="preserve">MULTI</t>
+    <t>MULTI</t>
   </si>
   <si>
-    <t xml:space="preserve">POOL 1</t>
+    <t>POOL</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncer ½</t>
+    <t>Bouncer ½</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncer ¾</t>
+    <t>Bouncer ¾</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncer 1/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POOL</t>
+    <t>Bouncer 1/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
+      <b/>
+      <i/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -248,14 +206,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -271,135 +229,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="24">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 5" xfId="20"/>
-    <cellStyle name="Accent 2 6" xfId="21"/>
-    <cellStyle name="Accent 3 7" xfId="22"/>
-    <cellStyle name="Accent 4" xfId="23"/>
-    <cellStyle name="Bad 8" xfId="24"/>
-    <cellStyle name="Error 9" xfId="25"/>
-    <cellStyle name="Footnote 10" xfId="26"/>
-    <cellStyle name="Good 11" xfId="27"/>
-    <cellStyle name="Heading (user) 12" xfId="28"/>
-    <cellStyle name="Heading 1 13" xfId="29"/>
-    <cellStyle name="Heading 2 14" xfId="30"/>
-    <cellStyle name="Hyperlink 15" xfId="31"/>
-    <cellStyle name="Neutral 16" xfId="32"/>
-    <cellStyle name="Note 17" xfId="33"/>
-    <cellStyle name="Result (user) 18" xfId="34"/>
-    <cellStyle name="Status 19" xfId="35"/>
-    <cellStyle name="Text 20" xfId="36"/>
-    <cellStyle name="Warning 21" xfId="37"/>
+  <cellStyles count="19">
+    <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent 2 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent 3 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Bad 8" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Error 9" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnote 10" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Good 11" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Heading (user) 12" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Heading 1 13" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Heading 2 14" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Hyperlink 15" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Neutral 16" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Note 17" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Result (user) 18" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Status 19" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Text 20" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Warning 21" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -458,15 +334,36 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -475,7 +372,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -483,7 +380,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="ru-RU" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -504,6 +401,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -511,23 +409,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Custom"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Custom</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Custom</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -537,23 +424,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -562,13 +457,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -591,8 +493,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -601,52 +503,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0080857</c:v>
+                  <c:v>8.0856999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0195804</c:v>
+                  <c:v>1.9580400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0225088</c:v>
+                  <c:v>2.2508799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.032869</c:v>
+                  <c:v>3.2869000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0378647</c:v>
+                  <c:v>3.7864700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0496898</c:v>
+                  <c:v>4.9689799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0927038</c:v>
+                  <c:v>9.2703800000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE21-41B8-965E-0B5578FE3EA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Single"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Single</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -656,23 +552,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -681,13 +585,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -710,8 +621,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -720,10 +631,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0120408</c:v>
+                  <c:v>1.2040800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0561086</c:v>
+                  <c:v>5.6108600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1034557</c:v>
@@ -732,40 +643,34 @@
                   <c:v>0.1413739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1951023</c:v>
+                  <c:v>0.19510230000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2273461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42215</c:v>
+                  <c:v>0.42215000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE21-41B8-965E-0B5578FE3EA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Multi"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Multi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Multi</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -775,23 +680,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -800,13 +713,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -829,8 +749,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -839,22 +759,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0120907</c:v>
+                  <c:v>1.2090699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0430173</c:v>
+                  <c:v>4.3017300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0544919</c:v>
+                  <c:v>5.4491900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0797799</c:v>
+                  <c:v>7.9779900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1099989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1355667</c:v>
+                  <c:v>0.13556670000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.2455735</c:v>
@@ -863,28 +783,22 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CE21-41B8-965E-0B5578FE3EA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Pool"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pool</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Pool</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -894,23 +808,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -919,13 +841,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -948,8 +877,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -958,31 +887,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0044568</c:v>
+                  <c:v>4.4568000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0162032</c:v>
+                  <c:v>1.6203200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0272508</c:v>
+                  <c:v>2.7250799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0343261</c:v>
+                  <c:v>3.4326099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0396292</c:v>
+                  <c:v>3.9629200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0441482</c:v>
+                  <c:v>4.4148199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0672837</c:v>
+                  <c:v>6.7283700000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CE21-41B8-965E-0B5578FE3EA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -991,11 +933,12 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="47406488"/>
-        <c:axId val="5962183"/>
+        <c:smooth val="0"/>
+        <c:axId val="1467469"/>
+        <c:axId val="2074152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47406488"/>
+        <c:axId val="1467469"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +948,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1015,7 +958,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
+                <a:srgbClr val="F2F2F2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1028,7 +971,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1036,7 +979,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1062,7 +1005,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1072,16 +1015,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5962183"/>
+        <c:crossAx val="2074152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5962183"/>
+        <c:axId val="2074152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1043,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1112,7 +1056,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1120,7 +1064,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1154,16 +1098,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47406488"/>
+        <c:crossAx val="1467469"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,22 +1135,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
@@ -1214,32 +1161,2562 @@
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение времени работы метода</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> и пула соединений</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Custom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.0856999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9580400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2508799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2869000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7864700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9689799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2703800000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3339-4C41-B030-40F0ED99A988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pool</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$R$2:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.4568000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6203200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7250799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4326099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9629200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4148199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7283700000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3339-4C41-B030-40F0ED99A988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>PGBouncer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$S$2:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.4974000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.02226E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.96271E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.16205E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4886100000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1073455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18486440000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3339-4C41-B030-40F0ED99A988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="341599903"/>
+        <c:axId val="2111646047"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$P$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ось Х</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$P$2:$P$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$P$2:$P$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3339-4C41-B030-40F0ED99A988}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="341599903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число соединений, шт</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111646047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2111646047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341599903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TASK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$14:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8476699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8054600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1559999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4544700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4599500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1112186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18817049999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE21-431A-909C-699BBA18439E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pool</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$14:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8149E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00952E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.56781E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8094899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2253999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3865300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1029612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE21-431A-909C-699BBA18439E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="53542639"/>
+        <c:axId val="53538895"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53542639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> соединений, шт</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53538895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53538895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53542639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>437760</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>445920</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6755760" y="0"/>
-        <a:ext cx="6482880" cy="4021920"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1249,311 +3726,827 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>572770</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>77470</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE3C923-F928-7B57-C79F-7A333B40D695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>195590</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62712D4F-752C-E7B6-A6A6-99A46F3E8B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="M37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="10.72"/>
+    <col min="1" max="5" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.0080857</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.0120408</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.0120907</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.0044568</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.0064974</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.005874</v>
+      <c r="B2">
+        <v>8.0856999999999995E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.2040800000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.2090699999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.4568000000000003E-3</v>
+      </c>
+      <c r="F2">
+        <v>6.4974000000000004E-3</v>
+      </c>
+      <c r="H2">
+        <v>5.8739999999999999E-3</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>8.0856999999999995E-3</v>
+      </c>
+      <c r="R2">
+        <v>4.4568000000000003E-3</v>
+      </c>
+      <c r="S2">
+        <v>6.4974000000000004E-3</v>
+      </c>
+      <c r="X2">
+        <v>5.8739999999999999E-3</v>
+      </c>
+      <c r="Y2">
+        <v>6.4974000000000004E-3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>50</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.0195804</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.0561086</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.0430173</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.0162032</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.0202226</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.021251</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.0212965</v>
+      <c r="B3">
+        <v>1.9580400000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.6108600000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.3017300000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.6203200000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.02226E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.1250999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.1296499999999999E-2</v>
+      </c>
+      <c r="P3">
+        <v>50</v>
+      </c>
+      <c r="Q3">
+        <v>1.9580400000000001E-2</v>
+      </c>
+      <c r="R3">
+        <v>1.6203200000000001E-2</v>
+      </c>
+      <c r="S3">
+        <v>2.02226E-2</v>
+      </c>
+      <c r="X3">
+        <v>2.1296499999999999E-2</v>
+      </c>
+      <c r="Y3">
+        <v>2.02226E-2</v>
+      </c>
+      <c r="Z3">
+        <v>2.1250999999999999E-2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0225088</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4">
+        <v>2.2508799999999999E-2</v>
+      </c>
+      <c r="C4">
         <v>0.1034557</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0544919</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.0272508</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.0496271</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.0510156</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.0481358</v>
+      <c r="D4">
+        <v>5.4491900000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.7250799999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.96271E-2</v>
+      </c>
+      <c r="G4">
+        <v>5.1015600000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.8135799999999999E-2</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>2.2508799999999999E-2</v>
+      </c>
+      <c r="R4">
+        <v>2.7250799999999999E-2</v>
+      </c>
+      <c r="S4">
+        <v>4.96271E-2</v>
+      </c>
+      <c r="X4">
+        <v>4.8135799999999999E-2</v>
+      </c>
+      <c r="Y4">
+        <v>4.96271E-2</v>
+      </c>
+      <c r="Z4">
+        <v>5.1015600000000001E-2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>150</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.032869</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5">
+        <v>3.2869000000000002E-2</v>
+      </c>
+      <c r="C5">
         <v>0.1413739</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.0797799</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.0343261</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.0516205</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.0671017</v>
+      <c r="D5">
+        <v>7.9779900000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.4326099999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.16205E-2</v>
+      </c>
+      <c r="H5">
+        <v>6.71017E-2</v>
+      </c>
+      <c r="P5">
+        <v>150</v>
+      </c>
+      <c r="Q5">
+        <v>3.2869000000000002E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.4326099999999998E-2</v>
+      </c>
+      <c r="S5">
+        <v>5.16205E-2</v>
+      </c>
+      <c r="X5">
+        <v>6.71017E-2</v>
+      </c>
+      <c r="Y5">
+        <v>5.16205E-2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>200</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.0378647</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.1951023</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="B6">
+        <v>3.7864700000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.19510230000000001</v>
+      </c>
+      <c r="D6">
         <v>0.1099989</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0.0396292</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.0848861</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.0875364</v>
+      <c r="E6">
+        <v>3.9629200000000003E-2</v>
+      </c>
+      <c r="F6">
+        <v>8.4886100000000006E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.75364E-2</v>
+      </c>
+      <c r="P6">
+        <v>200</v>
+      </c>
+      <c r="Q6">
+        <v>3.7864700000000001E-2</v>
+      </c>
+      <c r="R6">
+        <v>3.9629200000000003E-2</v>
+      </c>
+      <c r="S6">
+        <v>8.4886100000000006E-2</v>
+      </c>
+      <c r="X6">
+        <v>8.75364E-2</v>
+      </c>
+      <c r="Y6">
+        <v>8.4886100000000006E-2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>250</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.0496898</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7">
+        <v>4.9689799999999999E-2</v>
+      </c>
+      <c r="C7">
         <v>0.2273461</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.1355667</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.0441482</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7">
+        <v>0.13556670000000001</v>
+      </c>
+      <c r="E7">
+        <v>4.4148199999999999E-2</v>
+      </c>
+      <c r="F7">
         <v>0.1073455</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>0.1107363</v>
       </c>
+      <c r="P7">
+        <v>250</v>
+      </c>
+      <c r="Q7">
+        <v>4.9689799999999999E-2</v>
+      </c>
+      <c r="R7">
+        <v>4.4148199999999999E-2</v>
+      </c>
+      <c r="S7">
+        <v>0.1073455</v>
+      </c>
+      <c r="X7">
+        <v>0.1107363</v>
+      </c>
+      <c r="Y7">
+        <v>0.1073455</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>500</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.0927038</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.42215</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8">
+        <v>9.2703800000000003E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.42215000000000003</v>
+      </c>
+      <c r="D8">
         <v>0.2455735</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0.0672837</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.1848644</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.1933989</v>
+      <c r="E8">
+        <v>6.7283700000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.18486440000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.19339890000000001</v>
+      </c>
+      <c r="P8">
+        <v>500</v>
+      </c>
+      <c r="Q8">
+        <v>9.2703800000000003E-2</v>
+      </c>
+      <c r="R8">
+        <v>6.7283700000000002E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.18486440000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.19339890000000001</v>
+      </c>
+      <c r="Y8">
+        <v>0.18486440000000001</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>8</v>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.0184767</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0.0028149</v>
+      <c r="B14">
+        <v>1.8476699999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>2.8149E-3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>50</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.0480546</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.0100952</v>
+      <c r="B15">
+        <v>4.8054600000000003E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.00952E-2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>100</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.06156</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0.0156781</v>
+      <c r="B16">
+        <v>6.1559999999999997E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.56781E-2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>150</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.0545447</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0.0280949</v>
+      <c r="B17">
+        <v>5.4544700000000002E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.8094899999999999E-2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>200</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.0545995</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0.032254</v>
+      <c r="B18">
+        <v>5.4599500000000002E-2</v>
+      </c>
+      <c r="C18">
+        <v>3.2253999999999998E-2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>250</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>0.1112186</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>0.0438653</v>
+      <c r="C19">
+        <v>4.3865300000000003E-2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>500</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.1881705</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20">
+        <v>0.18817049999999999</v>
+      </c>
+      <c r="C20">
         <v>0.1029612</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CСтраница &amp;P</oddFooter>
   </headerFooter>

--- a/results/2Ex.xlsx
+++ b/results/2Ex.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">MULTI</t>
   </si>
   <si>
-    <t xml:space="preserve">POOL</t>
+    <t xml:space="preserve">POOL 1</t>
   </si>
   <si>
     <t xml:space="preserve">Bouncer ½</t>
@@ -988,11 +988,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="1467469"/>
-        <c:axId val="2074152"/>
+        <c:axId val="87109210"/>
+        <c:axId val="60189998"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1467469"/>
+        <c:axId val="87109210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1078,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074152"/>
+        <c:crossAx val="60189998"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1086,7 +1086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074152"/>
+        <c:axId val="60189998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1467469"/>
+        <c:crossAx val="87109210"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1225,9 +1225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>597960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1235,8 +1235,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1590840" y="2199960"/>
-        <a:ext cx="6481080" cy="4022640"/>
+        <a:off x="1591560" y="2199960"/>
+        <a:ext cx="6483240" cy="4022280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/results/2Ex.xlsx
+++ b/results/2Ex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">ось Х</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bouncer 1/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POOL</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -988,11 +991,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="87109210"/>
-        <c:axId val="60189998"/>
+        <c:axId val="47406488"/>
+        <c:axId val="5962183"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87109210"/>
+        <c:axId val="47406488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1081,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60189998"/>
+        <c:crossAx val="5962183"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1086,7 +1089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60189998"/>
+        <c:axId val="5962183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1163,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87109210"/>
+        <c:crossAx val="47406488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1218,16 +1221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>761760</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>437760</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1235,8 +1238,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1591560" y="2199960"/>
-        <a:ext cx="6483240" cy="4022280"/>
+        <a:off x="6755760" y="0"/>
+        <a:ext cx="6482880" cy="4021920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1254,10 +1257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1456,6 +1459,94 @@
       </c>
       <c r="H8" s="0" t="n">
         <v>0.1933989</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.0184767</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.0028149</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.0480546</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.0100952</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.06156</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.0156781</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.0545447</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.0280949</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.0545995</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.032254</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.1112186</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.0438653</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.1881705</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.1029612</v>
       </c>
     </row>
   </sheetData>

--- a/results/2Ex.xlsx
+++ b/results/2Ex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t xml:space="preserve">ось Х</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">TASK 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASK 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POOL 2</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -991,11 +997,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="47903579"/>
-        <c:axId val="81672678"/>
+        <c:axId val="46518742"/>
+        <c:axId val="29397383"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47903579"/>
+        <c:axId val="46518742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1087,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81672678"/>
+        <c:crossAx val="29397383"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81672678"/>
+        <c:axId val="29397383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1169,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47903579"/>
+        <c:crossAx val="46518742"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1217,7 +1223,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1626,11 +1632,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94194617"/>
-        <c:axId val="12482805"/>
+        <c:axId val="82422225"/>
+        <c:axId val="98509539"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94194617"/>
+        <c:axId val="82422225"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1712,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12482805"/>
+        <c:crossAx val="98509539"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1714,7 +1720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12482805"/>
+        <c:axId val="98509539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1793,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94194617"/>
+        <c:crossAx val="82422225"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1841,7 +1847,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2093,7 +2099,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$14:$D$20</c:f>
+              <c:f>Лист1!$E$14:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2131,11 +2137,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64120972"/>
-        <c:axId val="42798237"/>
+        <c:axId val="11061713"/>
+        <c:axId val="570021"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64120972"/>
+        <c:axId val="11061713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,7 +2227,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42798237"/>
+        <c:crossAx val="570021"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2229,7 +2235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42798237"/>
+        <c:axId val="570021"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2308,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64120972"/>
+        <c:crossAx val="11061713"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2365,9 +2371,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>445680</xdr:colOff>
+      <xdr:colOff>445320</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2375,8 +2381,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7462080" y="2199960"/>
-        <a:ext cx="6440400" cy="4022280"/>
+        <a:off x="7465320" y="2199960"/>
+        <a:ext cx="6440040" cy="4021920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2395,9 +2401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2405,8 +2411,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14029560" y="2194560"/>
-        <a:ext cx="6824520" cy="4030560"/>
+        <a:off x="14032800" y="2194560"/>
+        <a:ext cx="6824160" cy="4030200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2425,9 +2431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2435,8 +2441,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14066280" y="6553080"/>
-        <a:ext cx="6905880" cy="4076640"/>
+        <a:off x="14069520" y="6553080"/>
+        <a:ext cx="6905520" cy="4076280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2457,12 +2463,12 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,7 +2828,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,7 +2848,13 @@
         <v>0.0150956</v>
       </c>
       <c r="D14" s="0" t="n">
+        <v>0.0118662</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>0.0028149</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.0037679</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,7 +2868,13 @@
         <v>0.0172104</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>0.0138837</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>0.0100952</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.0084461</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,7 +2888,13 @@
         <v>0.0629042</v>
       </c>
       <c r="D16" s="0" t="n">
+        <v>0.0338759</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>0.0156781</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.0231586</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,7 +2908,13 @@
         <v>0.0817587</v>
       </c>
       <c r="D17" s="0" t="n">
+        <v>0.0550137</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>0.0280949</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.0245351</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,7 +2928,13 @@
         <v>0.0946541</v>
       </c>
       <c r="D18" s="0" t="n">
+        <v>0.0968842</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>0.032254</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.0344005</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,7 +2945,13 @@
         <v>0.1112186</v>
       </c>
       <c r="D19" s="0" t="n">
+        <v>0.1000083</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>0.0438653</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.0519355</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,7 +2962,14 @@
         <v>0.1881705</v>
       </c>
       <c r="D20" s="0" t="n">
+        <f aca="false">SUM(D9:D18) / 10</f>
+        <v>0.02115237</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>0.1029612</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.0950476</v>
       </c>
     </row>
   </sheetData>

--- a/results/2Ex.xlsx
+++ b/results/2Ex.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a68a3ec46e1b54/Рабочий стол/BMSTU/8 sem/Diplom-source/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_DF3D79C93550203804FF81B1D90496F7CB5EAAE3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45C974D1-A606-4864-9D94-9D475BC3F034}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="15156" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,181 +35,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
-    <t xml:space="preserve">ось Х</t>
+    <t>ось Х</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK</t>
+    <t>TASK</t>
   </si>
   <si>
-    <t xml:space="preserve">SINGLE</t>
+    <t>SINGLE</t>
   </si>
   <si>
-    <t xml:space="preserve">MULTI</t>
+    <t>MULTI</t>
   </si>
   <si>
-    <t xml:space="preserve">POOL</t>
+    <t>POOL</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncer ½</t>
+    <t>Bouncer ½</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncer ¾</t>
+    <t>Bouncer ¾</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouncer 1/1</t>
+    <t>Bouncer 1/1</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK 2</t>
+    <t>TASK 2</t>
+  </si>
+  <si>
+    <t>TASK 3</t>
+  </si>
+  <si>
+    <t>POOL 2</t>
+  </si>
+  <si>
+    <t>Pool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
+      <b/>
+      <i/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -248,14 +228,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -271,135 +251,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="24">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 5" xfId="20"/>
-    <cellStyle name="Accent 2 6" xfId="21"/>
-    <cellStyle name="Accent 3 7" xfId="22"/>
-    <cellStyle name="Accent 4" xfId="23"/>
-    <cellStyle name="Bad 8" xfId="24"/>
-    <cellStyle name="Error 9" xfId="25"/>
-    <cellStyle name="Footnote 10" xfId="26"/>
-    <cellStyle name="Good 11" xfId="27"/>
-    <cellStyle name="Heading (user) 12" xfId="28"/>
-    <cellStyle name="Heading 1 13" xfId="29"/>
-    <cellStyle name="Heading 2 14" xfId="30"/>
-    <cellStyle name="Hyperlink 15" xfId="31"/>
-    <cellStyle name="Neutral 16" xfId="32"/>
-    <cellStyle name="Note 17" xfId="33"/>
-    <cellStyle name="Result (user) 18" xfId="34"/>
-    <cellStyle name="Status 19" xfId="35"/>
-    <cellStyle name="Text 20" xfId="36"/>
-    <cellStyle name="Warning 21" xfId="37"/>
+  <cellStyles count="19">
+    <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent 2 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent 3 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Bad 8" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Error 9" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnote 10" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Good 11" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Heading (user) 12" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Heading 1 13" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Heading 2 14" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Hyperlink 15" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Neutral 16" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Note 17" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Result (user) 18" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Status 19" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Text 20" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Warning 21" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -458,15 +356,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -475,7 +391,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -483,7 +399,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="ru-RU" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -504,6 +420,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -511,23 +428,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Custom"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Custom</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Custom</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -537,23 +443,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -562,13 +476,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -591,8 +512,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -601,52 +522,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0080857</c:v>
+                  <c:v>8.0856999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0195804</c:v>
+                  <c:v>1.9580400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0225088</c:v>
+                  <c:v>2.2508799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.032869</c:v>
+                  <c:v>3.2869000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0378647</c:v>
+                  <c:v>3.7864700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0496898</c:v>
+                  <c:v>4.9689799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0927038</c:v>
+                  <c:v>9.2703800000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB93-4DAA-B713-689991FFAA4A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Single"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Single</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -656,23 +571,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -681,13 +604,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -710,8 +640,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -720,10 +650,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0120408</c:v>
+                  <c:v>1.2040800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0561086</c:v>
+                  <c:v>5.6108600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1034557</c:v>
@@ -732,40 +662,34 @@
                   <c:v>0.1413739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1951023</c:v>
+                  <c:v>0.19510230000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2273461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42215</c:v>
+                  <c:v>0.42215000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB93-4DAA-B713-689991FFAA4A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Multi"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Multi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Multi</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -775,23 +699,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -800,13 +732,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -829,8 +768,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -839,22 +778,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0120907</c:v>
+                  <c:v>1.2090699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0430173</c:v>
+                  <c:v>4.3017300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0544919</c:v>
+                  <c:v>5.4491900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0797799</c:v>
+                  <c:v>7.9779900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1099989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1355667</c:v>
+                  <c:v>0.13556670000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.2455735</c:v>
@@ -863,28 +802,22 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB93-4DAA-B713-689991FFAA4A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Pool"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pool</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Pool</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -894,23 +827,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -919,13 +860,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -948,8 +896,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -958,31 +906,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0044568</c:v>
+                  <c:v>4.4568000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0162032</c:v>
+                  <c:v>1.6203200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0272508</c:v>
+                  <c:v>2.7250799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0343261</c:v>
+                  <c:v>3.4326099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0396292</c:v>
+                  <c:v>3.9629200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0441482</c:v>
+                  <c:v>4.4148199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0672837</c:v>
+                  <c:v>6.7283700000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AB93-4DAA-B713-689991FFAA4A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -991,11 +952,12 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="47903579"/>
-        <c:axId val="81672678"/>
+        <c:smooth val="0"/>
+        <c:axId val="46518742"/>
+        <c:axId val="29397383"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47903579"/>
+        <c:axId val="46518742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +967,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1015,7 +977,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
+                <a:srgbClr val="F2F2F2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1028,7 +990,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1036,7 +998,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1062,7 +1024,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1072,16 +1034,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81672678"/>
+        <c:crossAx val="29397383"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81672678"/>
+        <c:axId val="29397383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1062,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1112,7 +1075,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1120,7 +1083,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1154,16 +1117,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47903579"/>
+        <c:crossAx val="46518742"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,22 +1154,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
@@ -1214,13 +1180,20 @@
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1229,7 +1202,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr lang="ru-RU" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1237,7 +1210,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="ru-RU" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1258,6 +1231,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1265,23 +1239,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Custom"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Custom</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Custom</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1291,23 +1254,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1316,13 +1287,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$P$2:$P$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1345,8 +1323,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1355,52 +1333,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0080857</c:v>
+                  <c:v>8.0856999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0195804</c:v>
+                  <c:v>1.9580400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0225088</c:v>
+                  <c:v>2.2508799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.032869</c:v>
+                  <c:v>3.2869000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0378647</c:v>
+                  <c:v>3.7864700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0496898</c:v>
+                  <c:v>4.9689799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0927038</c:v>
+                  <c:v>9.2703800000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAEB-481D-B754-5EB0C9932EE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Pool"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pool</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Pool</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1410,23 +1382,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1435,13 +1415,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$P$2:$P$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1464,8 +1451,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1474,52 +1461,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0044568</c:v>
+                  <c:v>4.4568000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0162032</c:v>
+                  <c:v>1.6203200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0272508</c:v>
+                  <c:v>2.7250799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0343261</c:v>
+                  <c:v>3.4326099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0396292</c:v>
+                  <c:v>3.9629200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0441482</c:v>
+                  <c:v>4.4148199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0672837</c:v>
+                  <c:v>6.7283700000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAEB-481D-B754-5EB0C9932EE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"PGBouncer"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PGBouncer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>PGBouncer</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92d050"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="92d050"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1529,23 +1510,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92d050"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1554,13 +1543,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$P$2:$P$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1583,8 +1579,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1593,31 +1589,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0064974</c:v>
+                  <c:v>6.4974000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0202226</c:v>
+                  <c:v>2.02226E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0496271</c:v>
+                  <c:v>4.96271E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0516205</c:v>
+                  <c:v>5.16205E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0848861</c:v>
+                  <c:v>8.4886100000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1073455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1848644</c:v>
+                  <c:v>0.18486440000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAEB-481D-B754-5EB0C9932EE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1626,11 +1635,12 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94194617"/>
-        <c:axId val="12482805"/>
+        <c:smooth val="0"/>
+        <c:axId val="82422225"/>
+        <c:axId val="98509539"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94194617"/>
+        <c:axId val="82422225"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1650,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1653,7 +1663,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1661,7 +1671,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1687,7 +1697,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1697,16 +1707,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12482805"/>
+        <c:crossAx val="98509539"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1714,7 +1725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12482805"/>
+        <c:axId val="98509539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,7 +1735,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1737,7 +1748,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1745,7 +1756,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1778,16 +1789,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94194617"/>
+        <c:crossAx val="82422225"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,22 +1826,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
@@ -1838,13 +1852,20 @@
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1853,7 +1874,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1861,7 +1882,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="ru-RU" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1882,6 +1903,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1900,12 +1922,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1915,23 +1934,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1940,13 +1967,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$14:$A$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -1969,8 +2003,8 @@
                 <c:pt idx="6">
                   <c:v>500</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1979,52 +2013,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0184767</c:v>
+                  <c:v>1.8476699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0480546</c:v>
+                  <c:v>4.8054600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06156</c:v>
+                  <c:v>6.1559999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0545447</c:v>
+                  <c:v>5.4544700000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0545995</c:v>
+                  <c:v>5.4599500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1112186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1881705</c:v>
+                  <c:v>0.18817049999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D88A-49EF-9F04-3B03DDA43705}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Pool"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pool</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Pool</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2034,23 +2062,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2059,61 +2095,68 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$A$14:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$D$14:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0028149</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0100952</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0156781</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0280949</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.032254</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0438653</c:v>
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$14:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8149E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00952E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.56781E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8094899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2253999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3865300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.1029612</c:v>
@@ -2122,7 +2165,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D88A-49EF-9F04-3B03DDA43705}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -2131,11 +2187,12 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64120972"/>
-        <c:axId val="42798237"/>
+        <c:smooth val="0"/>
+        <c:axId val="11061713"/>
+        <c:axId val="570021"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64120972"/>
+        <c:axId val="11061713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,7 +2202,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2155,7 +2212,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
+                <a:srgbClr val="F2F2F2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2168,7 +2225,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2176,7 +2233,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2202,7 +2259,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2212,16 +2269,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42798237"/>
+        <c:crossAx val="570021"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2229,7 +2287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42798237"/>
+        <c:axId val="570021"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,7 +2297,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2252,7 +2310,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2260,7 +2318,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="ru-RU" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2293,16 +2351,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64120972"/>
+        <c:crossAx val="11061713"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2327,35 +2386,1213 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> времени работы реализаций от количества соединений при нагрузке БД</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Custom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$24:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$24:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.8662000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3883700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.38759E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.45447E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4599500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10000829999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18817049999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1BD-4DBF-B831-D2804531DCD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$24:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$24:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.7678999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00952E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3158600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4535100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4400500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1935500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1029612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1BD-4DBF-B831-D2804531DCD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="758468175"/>
+        <c:axId val="758478575"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="758468175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число соединений, шт</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758478575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="758478575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758468175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -2365,18 +3602,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>445680</xdr:colOff>
+      <xdr:colOff>445320</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7462080" y="2199960"/>
-        <a:ext cx="6440400" cy="4022280"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2395,18 +3638,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14029560" y="2194560"/>
-        <a:ext cx="6824520" cy="4030560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2425,18 +3674,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14066280" y="6553080"/>
-        <a:ext cx="6905880" cy="4076640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2446,482 +3701,946 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62344</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489524</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FF51C9-D917-AC1B-8893-6F1BAEC47090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="10.7"/>
+    <col min="1" max="5" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.0080857</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.0120408</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.0120907</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.0044568</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.0064974</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.005874</v>
-      </c>
-      <c r="P2" s="0" t="n">
+      <c r="B2">
+        <v>8.0856999999999995E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.2040800000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.2090699999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.4568000000000003E-3</v>
+      </c>
+      <c r="F2">
+        <v>6.4974000000000004E-3</v>
+      </c>
+      <c r="H2">
+        <v>5.8739999999999999E-3</v>
+      </c>
+      <c r="P2">
         <v>10</v>
       </c>
-      <c r="Q2" s="0" t="n">
-        <v>0.0080857</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0.0044568</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>0.0064974</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>0.005874</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>0.0064974</v>
+      <c r="Q2">
+        <v>8.0856999999999995E-3</v>
+      </c>
+      <c r="R2">
+        <v>4.4568000000000003E-3</v>
+      </c>
+      <c r="S2">
+        <v>6.4974000000000004E-3</v>
+      </c>
+      <c r="X2">
+        <v>5.8739999999999999E-3</v>
+      </c>
+      <c r="Y2">
+        <v>6.4974000000000004E-3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>50</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.0195804</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.0561086</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.0430173</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.0162032</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.0202226</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.021251</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.0212965</v>
-      </c>
-      <c r="P3" s="0" t="n">
+      <c r="B3">
+        <v>1.9580400000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.6108600000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.3017300000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.6203200000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.02226E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.1250999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.1296499999999999E-2</v>
+      </c>
+      <c r="P3">
         <v>50</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>0.0195804</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0.0162032</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0.0202226</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>0.0212965</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>0.0202226</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>0.021251</v>
+      <c r="Q3">
+        <v>1.9580400000000001E-2</v>
+      </c>
+      <c r="R3">
+        <v>1.6203200000000001E-2</v>
+      </c>
+      <c r="S3">
+        <v>2.02226E-2</v>
+      </c>
+      <c r="X3">
+        <v>2.1296499999999999E-2</v>
+      </c>
+      <c r="Y3">
+        <v>2.02226E-2</v>
+      </c>
+      <c r="Z3">
+        <v>2.1250999999999999E-2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0225088</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4">
+        <v>2.2508799999999999E-2</v>
+      </c>
+      <c r="C4">
         <v>0.1034557</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0544919</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.0272508</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.0496271</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.0510156</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.0481358</v>
-      </c>
-      <c r="P4" s="0" t="n">
+      <c r="D4">
+        <v>5.4491900000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.7250799999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.96271E-2</v>
+      </c>
+      <c r="G4">
+        <v>5.1015600000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.8135799999999999E-2</v>
+      </c>
+      <c r="P4">
         <v>100</v>
       </c>
-      <c r="Q4" s="0" t="n">
-        <v>0.0225088</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0.0272508</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0.0496271</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>0.0481358</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>0.0496271</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>0.0510156</v>
+      <c r="Q4">
+        <v>2.2508799999999999E-2</v>
+      </c>
+      <c r="R4">
+        <v>2.7250799999999999E-2</v>
+      </c>
+      <c r="S4">
+        <v>4.96271E-2</v>
+      </c>
+      <c r="X4">
+        <v>4.8135799999999999E-2</v>
+      </c>
+      <c r="Y4">
+        <v>4.96271E-2</v>
+      </c>
+      <c r="Z4">
+        <v>5.1015600000000001E-2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>150</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.032869</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5">
+        <v>3.2869000000000002E-2</v>
+      </c>
+      <c r="C5">
         <v>0.1413739</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.0797799</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.0343261</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.0516205</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.0671017</v>
-      </c>
-      <c r="P5" s="0" t="n">
+      <c r="D5">
+        <v>7.9779900000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.4326099999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.16205E-2</v>
+      </c>
+      <c r="H5">
+        <v>6.71017E-2</v>
+      </c>
+      <c r="P5">
         <v>150</v>
       </c>
-      <c r="Q5" s="0" t="n">
-        <v>0.032869</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>0.0343261</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>0.0516205</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>0.0671017</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>0.0516205</v>
+      <c r="Q5">
+        <v>3.2869000000000002E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.4326099999999998E-2</v>
+      </c>
+      <c r="S5">
+        <v>5.16205E-2</v>
+      </c>
+      <c r="X5">
+        <v>6.71017E-2</v>
+      </c>
+      <c r="Y5">
+        <v>5.16205E-2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>200</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.0378647</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.1951023</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="B6">
+        <v>3.7864700000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.19510230000000001</v>
+      </c>
+      <c r="D6">
         <v>0.1099989</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0.0396292</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.0848861</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.0875364</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="E6">
+        <v>3.9629200000000003E-2</v>
+      </c>
+      <c r="F6">
+        <v>8.4886100000000006E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.75364E-2</v>
+      </c>
+      <c r="P6">
         <v>200</v>
       </c>
-      <c r="Q6" s="0" t="n">
-        <v>0.0378647</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0.0396292</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>0.0848861</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>0.0875364</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>0.0848861</v>
+      <c r="Q6">
+        <v>3.7864700000000001E-2</v>
+      </c>
+      <c r="R6">
+        <v>3.9629200000000003E-2</v>
+      </c>
+      <c r="S6">
+        <v>8.4886100000000006E-2</v>
+      </c>
+      <c r="X6">
+        <v>8.75364E-2</v>
+      </c>
+      <c r="Y6">
+        <v>8.4886100000000006E-2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>250</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.0496898</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7">
+        <v>4.9689799999999999E-2</v>
+      </c>
+      <c r="C7">
         <v>0.2273461</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.1355667</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.0441482</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7">
+        <v>0.13556670000000001</v>
+      </c>
+      <c r="E7">
+        <v>4.4148199999999999E-2</v>
+      </c>
+      <c r="F7">
         <v>0.1073455</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>0.1107363</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>250</v>
       </c>
-      <c r="Q7" s="0" t="n">
-        <v>0.0496898</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>0.0441482</v>
-      </c>
-      <c r="S7" s="0" t="n">
+      <c r="Q7">
+        <v>4.9689799999999999E-2</v>
+      </c>
+      <c r="R7">
+        <v>4.4148199999999999E-2</v>
+      </c>
+      <c r="S7">
         <v>0.1073455</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7">
         <v>0.1107363</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7">
         <v>0.1073455</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>500</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.0927038</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.42215</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8">
+        <v>9.2703800000000003E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.42215000000000003</v>
+      </c>
+      <c r="D8">
         <v>0.2455735</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0.0672837</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.1848644</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.1933989</v>
-      </c>
-      <c r="P8" s="0" t="n">
+      <c r="E8">
+        <v>6.7283700000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.18486440000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.19339890000000001</v>
+      </c>
+      <c r="P8">
         <v>500</v>
       </c>
-      <c r="Q8" s="0" t="n">
-        <v>0.0927038</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>0.0672837</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>0.1848644</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>0.1933989</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>0.1848644</v>
+      <c r="Q8">
+        <v>9.2703800000000003E-2</v>
+      </c>
+      <c r="R8">
+        <v>6.7283700000000002E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.18486440000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.19339890000000001</v>
+      </c>
+      <c r="Y8">
+        <v>0.18486440000000001</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>4</v>
       </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.0184767</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0.0150956</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.0028149</v>
+      <c r="B14">
+        <v>1.8476699999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.5095600000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.18662E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.8149E-3</v>
+      </c>
+      <c r="F14">
+        <v>3.7678999999999998E-3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>50</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.0480546</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.0172104</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.0100952</v>
+      <c r="B15">
+        <v>4.8054600000000003E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.7210400000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.3883700000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.00952E-2</v>
+      </c>
+      <c r="F15">
+        <v>8.4460999999999998E-3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>100</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.06156</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0.0629042</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.0156781</v>
+      <c r="B16">
+        <v>6.1559999999999997E-2</v>
+      </c>
+      <c r="C16">
+        <v>6.2904199999999993E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.38759E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.56781E-2</v>
+      </c>
+      <c r="F16">
+        <v>2.3158600000000001E-2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>150</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.0545447</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0.0817587</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.0280949</v>
+      <c r="B17">
+        <v>5.4544700000000002E-2</v>
+      </c>
+      <c r="C17">
+        <v>8.1758700000000004E-2</v>
+      </c>
+      <c r="D17">
+        <v>5.5013699999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.8094899999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>2.4535100000000001E-2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>200</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.0545995</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0.0946541</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.032254</v>
+      <c r="B18">
+        <v>5.4599500000000002E-2</v>
+      </c>
+      <c r="C18">
+        <v>9.4654100000000005E-2</v>
+      </c>
+      <c r="D18">
+        <v>9.6884200000000004E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.2253999999999998E-2</v>
+      </c>
+      <c r="F18">
+        <v>3.4400500000000001E-2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>250</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>0.1112186</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0.0438653</v>
+      <c r="D19">
+        <v>0.10000829999999999</v>
+      </c>
+      <c r="E19">
+        <v>4.3865300000000003E-2</v>
+      </c>
+      <c r="F19">
+        <v>5.1935500000000002E-2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>500</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.1881705</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="B20">
+        <v>0.18817049999999999</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D9:D18) / 10</f>
+        <v>2.115237E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.1029612</v>
+      </c>
+      <c r="F20">
+        <v>9.5047599999999996E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>9.8662000000000003E-3</v>
+      </c>
+      <c r="C24">
+        <v>3.7678999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>1.3883700000000001E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.00952E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>3.38759E-2</v>
+      </c>
+      <c r="C26">
+        <v>2.3158600000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>4.45447E-2</v>
+      </c>
+      <c r="C27">
+        <v>2.4535100000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>5.4599500000000002E-2</v>
+      </c>
+      <c r="C28">
+        <v>3.4400500000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>0.10000829999999999</v>
+      </c>
+      <c r="C29">
+        <v>5.1935500000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>500</v>
+      </c>
+      <c r="B30">
+        <v>0.18817049999999999</v>
+      </c>
+      <c r="C30">
         <v>0.1029612</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CСтраница &amp;P</oddFooter>
   </headerFooter>
